--- a/biology/Botanique/Flore_endémique_de_l'île_Maurice/Flore_endémique_de_l'île_Maurice.xlsx
+++ b/biology/Botanique/Flore_endémique_de_l'île_Maurice/Flore_endémique_de_l'île_Maurice.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Flore_end%C3%A9mique_de_l%27%C3%AEle_Maurice</t>
+          <t>Flore_endémique_de_l'île_Maurice</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Voici une liste des espèces végétales endémiques de l'île Maurice, dont les noms scientifiques sont classés selon l'ordre alphabétique.
 Attention, cette liste n'inclut pas les espèces endémiques de Rodrigues, dépendance lointaine de la république de Maurice à laquelle la Liste des espèces endémiques de Rodrigues est consacrée. En revanche, elle inclut bel et bien les espèces endémiques des îlots proches de l'île principale comme l'île Ronde ou l'île Plate.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Flore_end%C3%A9mique_de_l%27%C3%AEle_Maurice</t>
+          <t>Flore_endémique_de_l'île_Maurice</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Badula insularis - Bois pintade.
 Barleria observatrix.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Flore_end%C3%A9mique_de_l%27%C3%AEle_Maurice</t>
+          <t>Flore_endémique_de_l'île_Maurice</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Canarium paniculatum - Bois colophane.
 Casearia mauritiana.
@@ -557,7 +573,7 @@
 Cynanchum glomeratum
 Cynanchum scopulosum
 Cynanchum staubii
-Cylindrocline lorencei disparue de son milieu naturel[1].</t>
+Cylindrocline lorencei disparue de son milieu naturel.</t>
         </is>
       </c>
     </row>
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Flore_end%C3%A9mique_de_l%27%C3%AEle_Maurice</t>
+          <t>Flore_endémique_de_l'île_Maurice</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,7 +601,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Dictyosperma album (var. conjugatum) - Palmiste blanc de l'île Ronde
 Diospyros tesselaria - Bois d'ébène
@@ -602,7 +620,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Flore_end%C3%A9mique_de_l%27%C3%AEle_Maurice</t>
+          <t>Flore_endémique_de_l'île_Maurice</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -620,7 +638,9 @@
           <t>E</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Elaeocarpus integrifolius - Ganitre à feuilles entières
 Eugenia bojeri - Bois clou
@@ -635,7 +655,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Flore_end%C3%A9mique_de_l%27%C3%AEle_Maurice</t>
+          <t>Flore_endémique_de_l'île_Maurice</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -653,7 +673,9 @@
           <t>G</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Gaertnera psychotroides - Bois banane.
 Polyscias maraisiana - Bois bœuf.
@@ -668,7 +690,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Flore_end%C3%A9mique_de_l%27%C3%AEle_Maurice</t>
+          <t>Flore_endémique_de_l'île_Maurice</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -686,7 +708,9 @@
           <t>H</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Hibiscus fragilis - Mandrinette
 Hyophorbe amaricaulis
@@ -701,7 +725,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Flore_end%C3%A9mique_de_l%27%C3%AEle_Maurice</t>
+          <t>Flore_endémique_de_l'île_Maurice</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -719,7 +743,9 @@
           <t>L</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Latania loddigesii - Latanier bleu
 Lomatophyllum purpureum - Socotrine du pays.</t>
@@ -732,7 +758,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Flore_end%C3%A9mique_de_l%27%C3%AEle_Maurice</t>
+          <t>Flore_endémique_de_l'île_Maurice</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -750,7 +776,9 @@
           <t>M</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Macaranga mauritiana
 Mimusops erythroxylon - Bois canne
@@ -765,7 +793,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Flore_end%C3%A9mique_de_l%27%C3%AEle_Maurice</t>
+          <t>Flore_endémique_de_l'île_Maurice</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -783,7 +811,9 @@
           <t>P</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Pandanus microcarpus
 Pandanus palustris
@@ -807,7 +837,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Flore_end%C3%A9mique_de_l%27%C3%AEle_Maurice</t>
+          <t>Flore_endémique_de_l'île_Maurice</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -825,7 +855,9 @@
           <t>S</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Senecio lamarckianus - Bois chèvre.
 Sideroxylon grandiflorum - Tambalacoque.
@@ -839,7 +871,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Flore_end%C3%A9mique_de_l%27%C3%AEle_Maurice</t>
+          <t>Flore_endémique_de_l'île_Maurice</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -857,7 +889,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Tambourissa cocottensis
 Tambourissa quadrifida - Bois tambour
